--- a/模板-亚马逊库存分析.xlsx
+++ b/模板-亚马逊库存分析.xlsx
@@ -1135,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,9 +1171,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1812,15 +1809,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="391.5" spans="1:41">
+    <row r="1" ht="391.5" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1836,52 +1833,51 @@
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="13"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
     </row>
-    <row r="2" ht="54" spans="1:41">
+    <row r="2" ht="54" spans="1:40">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1915,98 +1911,95 @@
       <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="44">
-        <v>45231</v>
-      </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AN2" s="43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:40">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -2015,41 +2008,40 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/模板-亚马逊库存分析.xlsx
+++ b/模板-亚马逊库存分析.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,14 +1811,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AG1"/>
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="41" max="41" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" ht="391.5" spans="1:40">
       <c r="A1" s="1"/>
@@ -1877,7 +1883,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" ht="54" spans="1:40">
+    <row r="2" ht="54" spans="1:41">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1997,6 +2003,9 @@
       </c>
       <c r="AN2" s="43" t="s">
         <v>48</v>
+      </c>
+      <c r="AO2" s="46">
+        <v>45231</v>
       </c>
     </row>
     <row r="3" spans="1:40">
